--- a/biology/Mycologie/Niaceae/Niaceae.xlsx
+++ b/biology/Mycologie/Niaceae/Niaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Lachnellaceae sont une famille de champignons basidiomycètes classée dans le Clade IV Marasmioïde de l'ordre des Agaricales.
 Ce sont des genres de champignons lignicoles minuscules cupuliformes ou apothécioïdes. Le genre Lachnella autrefois dans la famille Niaceae est érigé en famille qui va comprendre le genre Nia. La phylogénétique intègre également le genre Calathella dans les Lachnellaceae.
-Certaines espèces, comme Calathella mangrovei[1] vivent sous l'eau à quelques centimètres de la surface.
+Certaines espèces, comme Calathella mangrovei vivent sous l'eau à quelques centimètres de la surface.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lachnellaceae : Author(s) : Boudier, J.L.É., Histoire et Classification des Discomycètes d'Europe, 1-223, 1907
 </t>
@@ -545,9 +559,11 @@
           <t>Position des Lachnellaceae dans le Clade des Marasmioïdes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Une étude a reconnu trente familles d'agaricales, quatre genres incertae sedis qui n'étaient pas encore intégrés et a proposé deux clades à titre informels[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Une étude a reconnu trente familles d'agaricales, quatre genres incertae sedis qui n'étaient pas encore intégrés et a proposé deux clades à titre informels.
 Agaricomycètes
 Boletales, Clade des Bolets
 Agaricales, Clade des Euagarics
@@ -592,7 +608,9 @@
           <t>Phylogramme des Lachnellaceae</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Physalacriaceae
@@ -633,7 +651,9 @@
           <t>Classification linnéenne</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Genre Lachnella
  Lachnella alboviolascens
